--- a/Modelos UML/Descrição UseCases/StockDisponivel.xlsx
+++ b/Modelos UML/Descrição UseCases/StockDisponivel.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\UseCase\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18101234-81D7-4FAA-A407-0FA2E58B8398}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,9 +48,6 @@
     <t>Pós condição:</t>
   </si>
   <si>
-    <t>Administrador</t>
-  </si>
-  <si>
     <t>Stock Disponível</t>
   </si>
   <si>
@@ -65,12 +61,15 @@
   </si>
   <si>
     <t>3. Mostra stock disponivel</t>
+  </si>
+  <si>
+    <t>Funcionário</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -579,11 +578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -600,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="9"/>
     </row>
@@ -609,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="9"/>
     </row>
@@ -618,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="9"/>
     </row>
@@ -644,13 +643,13 @@
       <c r="B7" s="13"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -658,7 +657,7 @@
       <c r="B9" s="13"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos UML/Descrição UseCases/StockDisponivel.xlsx
+++ b/Modelos UML/Descrição UseCases/StockDisponivel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EDD2C7-A37E-475F-B75F-1B39F38E1466}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -578,7 +579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Modelos UML/Descrição UseCases/StockDisponivel.xlsx
+++ b/Modelos UML/Descrição UseCases/StockDisponivel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EDD2C7-A37E-475F-B75F-1B39F38E1466}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Actor input</t>
   </si>
@@ -61,16 +60,19 @@
     <t>2. Escolhe opção de ver Stock Disponivel</t>
   </si>
   <si>
-    <t>3. Mostra stock disponivel</t>
-  </si>
-  <si>
     <t>Funcionário</t>
+  </si>
+  <si>
+    <t>3. Obtém stock disponivel</t>
+  </si>
+  <si>
+    <t>4. Mostra stock disponivel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -579,11 +581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -609,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="9"/>
     </row>
@@ -656,9 +658,16 @@
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="13"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +676,7 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
